--- a/countries/Spain_2.xlsx
+++ b/countries/Spain_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onemsci-my.sharepoint.com/personal/glo_canonoy_msci_com/Documents/03 Training/datasets-of-interest/a-place-for-salvador-allende/countries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="11_366DA0ECC88BCA9D3D92724AD967FD8C7A04F950" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E31748B7-D36F-4523-892F-EEA178648C39}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="11_366DA0ECC88BCA9D3D92724AD967FD8C7A04F950" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A59BCE4-498F-42A2-B9FD-68FC9F5FC430}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="108">
   <si>
     <t>id</t>
   </si>
@@ -829,7 +829,7 @@
   <dimension ref="A1:Y11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -998,9 +998,6 @@
       <c r="I3" t="s">
         <v>57</v>
       </c>
-      <c r="J3" t="s">
-        <v>26</v>
-      </c>
       <c r="K3" t="s">
         <v>62</v>
       </c>
@@ -1229,13 +1226,16 @@
         <v>-3.546082771422018</v>
       </c>
       <c r="N7">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="O7">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="P7">
+        <v>18</v>
       </c>
       <c r="Q7" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="V7">
         <v>1</v>
